--- a/Hypothesis Testing.xlsx
+++ b/Hypothesis Testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\forFinal\pic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\diamond-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9421488D-593E-422E-8162-3D7B4F5D41ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1B969B-6B45-4FAC-8F9B-037EBC759FFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10944" yWindow="2688" windowWidth="12444" windowHeight="8136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="12444" windowHeight="8136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis Testing" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hypothesis Testing'!$A$1:$A$10001</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Hypothesis Testing'!$A$2:$A$10001</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Hypothesis Testing'!$A$2:$A$10001</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,9 +40,6 @@
     <t>carat</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -51,12 +47,6 @@
   </si>
   <si>
     <t>alpha</t>
-  </si>
-  <si>
-    <t>sample sd</t>
-  </si>
-  <si>
-    <t>p-value</t>
   </si>
   <si>
     <t>result</t>
@@ -69,6 +59,15 @@
   </si>
   <si>
     <t>Ha &lt;</t>
+  </si>
+  <si>
+    <t>t cal</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>p-value t cal</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1132,7 @@
   <dimension ref="A1:F10001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1152,23 +1151,31 @@
         <v>1.01</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f>COUNT(A:A)</f>
         <v>10000</v>
       </c>
+      <c r="F2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E2)</f>
+        <v>=COUNT(A:A)</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.52</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <f>_xlfn.STDEV.P(A:A)</f>
-        <v>0.47325157081194685</v>
+        <f>_xlfn.STDEV.S(A:A)</f>
+        <v>0.47327523516532882</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F5" ca="1" si="0">_xlfn.FORMULATEXT(E3)</f>
+        <v>=STDEV.S(A:A)</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,19 +1183,23 @@
         <v>0.37</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f>AVERAGE(A:A)</f>
         <v>0.79608200000001972</v>
       </c>
+      <c r="F4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=AVERAGE(A:A)</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0.05</v>
@@ -1204,7 +1215,7 @@
         <v>0.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1215,7 +1226,7 @@
         <v>0.53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1234,11 +1245,11 @@
         <v>0.31</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4">
         <f>(E4-E7)/(E3/SQRT(E2))</f>
-        <v>-43.088710651318671</v>
+        <v>-43.086556161922523</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E11)</f>
@@ -1255,15 +1266,15 @@
         <v>0.42</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <f>_xlfn.NORM.S.DIST(E11,TRUE)</f>
+        <f>_xlfn.T.DIST(E11,E2-1,TRUE)</f>
         <v>0</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E13)</f>
-        <v>=NORM.S.DIST(E11,TRUE)</v>
+        <v>=T.DIST(E11,E2-1,TRUE)</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1271,7 +1282,7 @@
         <v>0.6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>IF(E13&lt;E5,"Reject H0","No reject H0")</f>
@@ -1292,7 +1303,7 @@
         <v>1.02</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <f>_xlfn.NORM.S.INV(E5)</f>
@@ -1304,7 +1315,7 @@
         <v>0.7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>IF(E11&lt;E16,"Reject H0","No reject H0")</f>
